--- a/medicine/Enfance/Marie-Claire_Bruley/Marie-Claire_Bruley.xlsx
+++ b/medicine/Enfance/Marie-Claire_Bruley/Marie-Claire_Bruley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-Claire Bruley (née en 1950) est une psychothérapeute, auteure et enseignante française en littérature jeunesse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie-Claire Bruley est née à Versailles. Elle a suivi des études de psychologie[1]. Elle a enseigné la littérature pour enfants, notamment auprès d'éducateurs spécialisés en formation. Elle a beaucoup travaillé autour des comptines, berceuses et formulettes[2],[3].  Elle a été formatrice durant deux ans au sein de l’association ACCES (Actions Culturelles Contre les Exclusions et les Ségrégations)[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie-Claire Bruley est née à Versailles. Elle a suivi des études de psychologie. Elle a enseigné la littérature pour enfants, notamment auprès d'éducateurs spécialisés en formation. Elle a beaucoup travaillé autour des comptines, berceuses et formulettes,.  Elle a été formatrice durant deux ans au sein de l’association ACCES (Actions Culturelles Contre les Exclusions et les Ségrégations). 
 Elle est directrice de la collection « Passeurs d'histoire » chez Didier Jeunesse. 
-En 1989, elle a obtenu le Prix Sorcières, catégorie tout-petits, pour Enfantines[5].
+En 1989, elle a obtenu le Prix Sorcières, catégorie tout-petits, pour Enfantines.
 </t>
         </is>
       </c>
@@ -544,11 +558,48 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a participé à de nombreuses œuvres[6],[7],[8] dont :
-Auteure et illustratrice
-Enfantines, jouer, parler avec le bébé, Marie-Claire Bruley et Lya Tourn ; illustrations de Philippe Dumas, l'École des loisirs, 1988
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a participé à de nombreuses œuvres dont :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marie-Claire_Bruley</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Claire_Bruley</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auteure et illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Enfantines, jouer, parler avec le bébé, Marie-Claire Bruley et Lya Tourn ; illustrations de Philippe Dumas, l'École des loisirs, 1988
 Berceuses et paroles pour appeler le sommeil, Marie-Claire Bruley et Lya Tourn ; illustrations de Philippe Dumas, l'École des loisirs, 1996
 Rimes et chansons des petits loupiots, (livre-CD), Didier Jeunesse, 2004
 Au bonheur des comptines, Marie-Claire Bruley, Marie-France Painset, Didier jeunesse, 2007
